--- a/Modelo/PITS_vs_BDGenerica.xlsx
+++ b/Modelo/PITS_vs_BDGenerica.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="0" windowWidth="9135" windowHeight="9660"/>
+    <workbookView xWindow="9600" yWindow="-150" windowWidth="9135" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -606,9 +606,6 @@
     <t>fec_descargo</t>
   </si>
   <si>
-    <t>fec_recepcion</t>
-  </si>
-  <si>
     <t>destinatario</t>
   </si>
   <si>
@@ -783,9 +780,6 @@
     <t>apmaterno</t>
   </si>
   <si>
-    <t>nombres</t>
-  </si>
-  <si>
     <t>fechanac</t>
   </si>
   <si>
@@ -915,16 +909,22 @@
     <t>codestadoguia</t>
   </si>
   <si>
-    <t>codserie</t>
-  </si>
-  <si>
-    <t>codnumero</t>
-  </si>
-  <si>
     <t>tipocotizacion</t>
   </si>
   <si>
     <t>fechaaprueba</t>
+  </si>
+  <si>
+    <t>fecrecepcion</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>coserie</t>
+  </si>
+  <si>
+    <t>conumero</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="27" spans="2:3" s="7" customFormat="1">
       <c r="B27" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>32</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>37</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>40</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>41</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>42</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>82</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>83</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>46</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>47</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>48</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>49</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>51</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>52</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>53</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>54</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>55</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>57</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>58</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>59</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>63</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>64</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>66</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>67</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>31</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>71</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>72</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>73</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="107" spans="2:3" s="7" customFormat="1">
       <c r="B107" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>74</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>75</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="109" spans="2:3">
       <c r="B109" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>76</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>77</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>78</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>82</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>83</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>84</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>32</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>70</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>86</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="132" spans="2:7" s="7" customFormat="1">
       <c r="B132" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>87</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>88</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="135" spans="2:7">
       <c r="B135" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>90</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>91</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>92</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>93</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>95</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>96</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>97</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>98</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="153" spans="2:4">
       <c r="B153" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>99</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="154" spans="2:4">
       <c r="B154" s="1" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>100</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="155" spans="2:4">
       <c r="B155" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>101</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="156" spans="2:4">
       <c r="B156" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>102</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="165" spans="2:3">
       <c r="B165" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>94</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>30</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>161</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>162</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>163</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>164</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>165</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>166</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>167</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>168</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="195" spans="2:6">
       <c r="B195" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>69</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="196" spans="2:6">
       <c r="B196" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>105</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="197" spans="2:6">
       <c r="B197" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>70</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="198" spans="2:6">
       <c r="B198" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>106</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="199" spans="2:6">
       <c r="B199" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>107</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="200" spans="2:6">
       <c r="B200" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>31</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="201" spans="2:6">
       <c r="B201" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>108</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="202" spans="2:6">
       <c r="B202" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>109</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="203" spans="2:6">
       <c r="B203" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>110</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="206" spans="2:6">
       <c r="B206" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>113</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="208" spans="2:6" s="13" customFormat="1">
       <c r="B208" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>170</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="209" spans="2:6">
       <c r="B209" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>115</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="210" spans="2:6">
       <c r="B210" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>116</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="211" spans="2:6">
       <c r="B211" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>117</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="212" spans="2:6">
       <c r="B212" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>118</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="213" spans="2:6">
       <c r="B213" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>119</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="214" spans="2:6" s="7" customFormat="1">
       <c r="B214" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>171</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="215" spans="2:6">
       <c r="B215" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>120</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="216" spans="2:6">
       <c r="B216" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>121</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="217" spans="2:6">
       <c r="B217" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>122</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="218" spans="2:6">
       <c r="B218" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>123</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="219" spans="2:6">
       <c r="B219" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>124</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="220" spans="2:6">
       <c r="B220" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>125</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>126</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>127</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>128</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>129</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>130</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>132</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="250" spans="2:3" s="7" customFormat="1">
       <c r="B250" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>133</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>134</v>
@@ -3121,15 +3121,15 @@
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>135</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>136</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>137</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="276" spans="2:3">
       <c r="B276" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>140</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="277" spans="2:3">
       <c r="B277" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>141</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="278" spans="2:3">
       <c r="B278" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>142</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>143</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>144</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>145</v>
@@ -3367,7 +3367,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>178</v>
@@ -3376,7 +3376,7 @@
         <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -3596,7 +3596,7 @@
         <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -3616,7 +3616,7 @@
         <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -3664,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" t="s">
         <v>178</v>
@@ -3676,7 +3676,7 @@
         <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -3684,7 +3684,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
         <v>178</v>
@@ -3696,7 +3696,7 @@
         <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -3704,7 +3704,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
         <v>178</v>
@@ -3716,7 +3716,7 @@
         <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -3724,7 +3724,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
         <v>178</v>
@@ -3736,7 +3736,7 @@
         <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -3756,7 +3756,7 @@
         <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -3839,15 +3839,15 @@
   <sheetData>
     <row r="3" spans="3:5">
       <c r="C3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -3855,10 +3855,10 @@
     </row>
     <row r="5" spans="3:5">
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3866,10 +3866,10 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -3877,10 +3877,10 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3899,43 +3899,43 @@
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" t="s">
         <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" t="s">
         <v>227</v>
-      </c>
-      <c r="E10" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -3943,32 +3943,32 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -3976,24 +3976,24 @@
     </row>
     <row r="16" spans="3:5">
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="s">
         <v>227</v>
-      </c>
-      <c r="E16" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -4001,7 +4001,7 @@
         <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -4020,13 +4020,13 @@
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
